--- a/biology/Médecine/Claude_Monod/Claude_Monod.xlsx
+++ b/biology/Médecine/Claude_Monod/Claude_Monod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Monod, né le 16 janvier 1917 et mort le 2 avril 1945, est un chirurgien et résistant français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Monod est le fils de Robert Monod, chirurgien thoracique et résistant qui a joué un rôle dans la libération de Paris. Claude Monod, jeune chirurgien interne à l'hôpital Saint-Antoine à Paris, est l'auteur avec Bernard Duhamel (le fils ainé du médecin-écrivain Georges Duhamel) d'un manuel de Schémas d'anatomie encore utilisé aujourd'hui.
 Il a dirigé le maquis FFI (Forces françaises de l'intérieur) de la région Bourgogne-Franche Comté, dite la « région D », de mai à septembre 1944 avec lequel il a participé à de nombreuses opérations de sabotage. Colonel dans la 1re armée régulière, il est tué le 2 avril 1945 à Graben (Allemagne), dans les premiers jours de la campagne d'Allemagne, à l'âge de 28 ans.
